--- a/data/trans_bre/P25_6-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_6-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>8,85</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,59</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>7,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-21,59%</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-27,47%</t>
+          <t>449,11%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>58,58%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>200,06%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>9,34%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 6,04</t>
+          <t>0,07; 20,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,78; 5,06</t>
+          <t>-7,03; 14,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 8,09</t>
+          <t>-1,79; 22,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-68,41; 92,25</t>
+          <t>-13,25; 14,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-71,13; 70,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-63,76; 158,16</t>
+          <t>-78,85; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-61,82; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-69,05; 345,0</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,56%</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-1,1%</t>
+          <t>-11,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>153,5%</t>
+          <t>32,27%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>129,24%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>57,38%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 3,57</t>
+          <t>-5,84; 3,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 2,74</t>
+          <t>-2,76; 5,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 9,15</t>
+          <t>-0,79; 7,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-62,76; 123,62</t>
+          <t>-2,97; 9,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-57,68; 111,41</t>
+          <t>-76,91; 156,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,64; 592,3</t>
+          <t>-60,54; 281,23</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-44,99; 945,91</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-47,66; 358,52</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,97</t>
+          <t>-5,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,82</t>
+          <t>-6,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-81,21%</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-31,42%</t>
+          <t>-76,46%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-89,7%</t>
+          <t>-34,87%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-90,99%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-51,33%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,1; -1,4</t>
+          <t>-18,24; -0,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 1,9</t>
+          <t>-6,9; 2,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,67; -2,58</t>
+          <t>-17,23; -2,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -20,82</t>
+          <t>-12,09; 2,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-75,8; 108,02</t>
+          <t>-100,0; -0,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -48,65</t>
+          <t>-86,69; 156,9</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 133,71</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-35,23%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-15,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 0,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 1,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 3,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-64,56; 14,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,28; 32,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,77; 85,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-1,36</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-24,1%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8,15%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-2,38%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7,11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-5,87; 1,75</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,58; 3,37</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-3,72; 2,98</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-3,88; 4,66</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-70,96; 53,08</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-45,08; 116,06</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-57,85; 108,72</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-44,42; 101,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25_6-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_6-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,191 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>8,85</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,37</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,54</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>449,11%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>58,58%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>200,06%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>9,34%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>9.170618767535583</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.037073734733277</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>11.02866582097246</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.267694764285481</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>4.915121713953128</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.7279131520027827</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>3.209936298351292</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2221867183460546</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 20,34</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,03; 14,61</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,79; 22,12</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-13,25; 14,49</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-78,85; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-61,82; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-69,05; 345,0</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.6093901803195583</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.818675068199516</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.3951034067042914</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-10.58999095664059</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="n">
+        <v>-0.7963218933100409</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.5749694834882889</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.6561651371392119</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>20.85382508067861</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>16.59333073119624</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>28.7260406233129</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>17.90906650900465</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="n">
+        <v>4.147761040105385</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,61</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,24</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,78</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,87</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-11,76%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>32,27%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>129,24%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>57,38%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,84; 3,86</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,76; 5,66</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,79; 7,16</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,97; 9,47</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-76,91; 156,53</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-60,54; 281,23</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-44,99; 945,91</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-47,66; 358,52</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.4164389734798636</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.303402250462175</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.313060262356419</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.921105918711909</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.09177639810611464</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.3552080599856713</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.061570999241338</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.6318414542382995</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-5,81</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,71</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-6,91</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-3,26</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-76,46%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-34,87%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-90,99%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-51,33%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.821538039826974</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.62442082874489</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.042566245289898</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.496223431024944</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.7563884918981774</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.5689003485336425</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.4862209070927512</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.413023018000831</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-18,24; -0,45</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,9; 2,43</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-17,23; -2,01</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-12,09; 2,03</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -0,32</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-86,69; 156,9</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 133,71</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.721737574635686</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.685803627073054</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.213401841724474</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>9.264587200901108</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.618304828457796</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>3.109018732482993</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>7.868735775112816</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>3.662119011148089</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +819,207 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-7.425541761474523</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.52854848003949</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-7.778415800868245</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-3.668197306995986</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.8130376989256441</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.4454989774550722</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.9264165927225075</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.5603223466188283</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-20.56173520883869</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9.040886542289407</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-18.86508980084386</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-12.95631225338077</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.9150488985863662</v>
+      </c>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-1.013796243013485</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.044615409620162</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-2.110798944261164</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.571232493381372</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.06188140183649154</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.188056576670653</v>
+      </c>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>1.264238016028593</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,36</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,46</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-24,1%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>8,15%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-2,38%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>7,11%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-5,87; 1,75</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,58; 3,37</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,72; 2,98</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-3,88; 4,66</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-70,96; 53,08</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-45,08; 116,06</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-57,85; 108,72</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-44,42; 101,83</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-1.87308856818677</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.2412416009183856</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.02238115540284316</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.6556575340834127</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.3156507578796532</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.05183640682217308</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.004955421039955788</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.105983136745342</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-7.247439642324737</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.123226495084692</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.566175198016563</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.565776616144054</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.7457681418645442</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.4745469426954776</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.5735750360337679</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.4450638142626978</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.273581338807386</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.352732357382817</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.318997397740474</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.915036701806109</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.3915095950845677</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.131308398207378</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.19370938926822</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.204907975871804</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
